--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1004028.074737942</v>
+        <v>1041916.405006465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484456</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7183332.187871959</v>
+        <v>7208584.714945805</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>177.5700012841388</v>
+        <v>151.1374619680082</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,10 +823,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>44.17153248965906</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>172.5173184218589</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>111.2544958819866</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>53.74650527181129</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>81.36430169794801</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>261.1524071517561</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.2891742205634</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.4380635245689</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283453</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170475</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537871</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>236.506896611418</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170513</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>129.2606839525046</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.64034175572547</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518589</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950061</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>93.33789293904289</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454357</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>136.192129728722</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>56.72042565247698</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>69.4540573175256</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6230741389446</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2998,22 +2998,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>131.5141848153389</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924889</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.62703520776763</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3430,10 +3430,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>30.80549757377495</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3472,13 +3472,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>214.2857264221714</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3664,19 +3664,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>46.45303019605571</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>90.5900258908751</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3898,13 +3898,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3955,13 +3955,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>61.23284287475812</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>194.7620321892972</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773008</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,10 +4189,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436912</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630988</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.53913136414</v>
+        <v>983.0221706460842</v>
       </c>
       <c r="C2" t="n">
-        <v>1361.437062587967</v>
+        <v>948.9201018699116</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.073424927221</v>
+        <v>796.2559988719236</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>362.4812540302188</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304686</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797692</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756286</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2196.14192482636</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1833.524974760187</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1428.66952017122</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1009.527056750531</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.798297808644</v>
+        <v>1005.281337090588</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.8429367339744</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064446</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.6610317276996</v>
+        <v>645.9649418400267</v>
       </c>
       <c r="C4" t="n">
-        <v>333.0993202109245</v>
+        <v>473.4032303232516</v>
       </c>
       <c r="D4" t="n">
-        <v>167.2213274124472</v>
+        <v>307.5252375247743</v>
       </c>
       <c r="E4" t="n">
-        <v>167.2213274124472</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018686</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.042757342369</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.2526391103301</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291243</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448888</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674669</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645011</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2296.12285880734</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2050.243412385795</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1771.8104116389</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1484.85490350933</v>
       </c>
       <c r="W4" t="n">
-        <v>733.0807024135913</v>
+        <v>1310.594985911493</v>
       </c>
       <c r="X4" t="n">
-        <v>733.0807024135913</v>
+        <v>1065.203231244906</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.6610317276996</v>
+        <v>837.7835605590137</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.8817772575624</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C5" t="n">
-        <v>516.503498588889</v>
+        <v>977.3751454603448</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>541.4653606347892</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>107.6906157930844</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>655.3866633620087</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>651.1409437020661</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>760.0629855319191</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>587.5012740151441</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>421.6232812166668</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.509060631519</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>987.4826562178109</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>987.4826562178109</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>760.0629855319191</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.7619447847898</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6194719682131</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>90.7500911830617</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176094</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137273</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137273</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137273</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105257</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L8" t="n">
-        <v>1382.132025509621</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1382.132025509621</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1382.132025509621</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509621</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1382.132025509621</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798675</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798675</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1255.912595732502</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1255.097545183939</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>991.3072349296401</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>987.0615152696976</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>721.6766975612717</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>549.1149860444966</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>383.2369932460193</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967565</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851274</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851274</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>174.109125272774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.109125272774</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.161826571869</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223633</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.475957802088</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1433.475957802088</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>1146.520449672519</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>874.4940452588105</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>874.4940452588105</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>721.6766975612717</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>516.962436093936</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,10 +5112,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5124,16 +5124,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987275</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819524</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834751</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342123</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959686</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5242,7 +5242,7 @@
         <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177147</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295529</v>
+        <v>2252.656868168564</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478953</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.671837653397</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.897092811692</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>737.0296632209001</v>
+        <v>787.6807519874949</v>
       </c>
       <c r="G14" t="n">
-        <v>335.6318318441636</v>
+        <v>386.2829206107588</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.795942933975</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940406</v>
+        <v>1186.925458503956</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940403</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556613</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774508</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353819</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780437</v>
+        <v>2678.956438653472</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,10 +5349,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987278</v>
+        <v>921.5429130934996</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819528</v>
+        <v>748.9812015767245</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834754</v>
+        <v>583.1032087782472</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342127</v>
+        <v>413.3452050289845</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959689</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2423.587870455138</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2145.154869708243</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1858.199361578674</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1586.172957164966</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1340.781202498378</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177149</v>
+        <v>1113.361531812487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847298</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939376</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172015</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392931</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892152</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2730.888184049003</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>3856.61916748545</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,10 +5586,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292996</v>
+        <v>944.0533615061023</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>771.4916499893272</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>605.6136571908501</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>435.8556534415873</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>259.1485994033436</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W19" t="n">
-        <v>1648.605562645475</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X19" t="n">
-        <v>1403.213807978888</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.794137292996</v>
+        <v>1135.871980225089</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397514</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5765,37 +5765,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5823,10 +5823,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J21" t="n">
         <v>447.3579748077851</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987272</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819521</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7901097834748</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342121</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959685</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
         <v>920.0973401405612</v>
@@ -6400,34 +6400,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q28" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2648.764836721532</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2402.885390299988</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2124.452389553093</v>
       </c>
       <c r="V28" t="n">
-        <v>1856.753788625736</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W28" t="n">
-        <v>1584.727384212028</v>
+        <v>1565.470477009815</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.33562954544</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.915958859548</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6601,7 +6601,7 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674089</v>
       </c>
       <c r="E31" t="n">
         <v>673.1212928181459</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U31" t="n">
-        <v>2159.539202830818</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V31" t="n">
-        <v>1872.583694701249</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.55729028754</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X31" t="n">
         <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="32">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883927</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716176</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716176</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223549</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841112</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099389</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1035.728611060352</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C37" t="n">
-        <v>863.1668995435765</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D37" t="n">
-        <v>697.2889067450992</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E37" t="n">
-        <v>527.5309029958364</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1948.217445618572</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1676.191041204864</v>
       </c>
       <c r="X37" t="n">
-        <v>1454.966900465231</v>
+        <v>1430.799286538276</v>
       </c>
       <c r="Y37" t="n">
-        <v>1227.547229779339</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,49 +7175,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.336856393764</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C40" t="n">
-        <v>617.775144876989</v>
+        <v>889.8015492906972</v>
       </c>
       <c r="D40" t="n">
-        <v>617.775144876989</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>448.0171411277262</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7357,25 +7357,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
+        <v>1726.993304878938</v>
+      </c>
+      <c r="W40" t="n">
         <v>1726.993304878939</v>
       </c>
-      <c r="W40" t="n">
-        <v>1454.966900465231</v>
-      </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127512</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7439,19 +7439,19 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.441008084184</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C43" t="n">
-        <v>842.8792965674086</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E43" t="n">
         <v>673.1212928181459</v>
@@ -7567,52 +7567,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354752</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066108</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745718</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955485</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113129</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338911</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309253</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173585</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878957</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176954</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755409</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008514</v>
       </c>
       <c r="V43" t="n">
-        <v>1952.097456569359</v>
+        <v>1726.993304878945</v>
       </c>
       <c r="W43" t="n">
-        <v>1680.07105215565</v>
+        <v>1454.966900465236</v>
       </c>
       <c r="X43" t="n">
-        <v>1434.679297489063</v>
+        <v>1258.237575021502</v>
       </c>
       <c r="Y43" t="n">
-        <v>1207.259626803171</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
         <v>1221.073045167952</v>
@@ -7646,52 +7646,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7816,40 +7816,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804267</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854669</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>65.00584608837605</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>115.4433635180153</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>290.2128107706658</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,13 +8611,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>51.27020671673881</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294867</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1152.384342430739</v>
+        <v>15.28233895957715</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,22 +9170,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>732.0625749059097</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>706.6317115441702</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,10 +10838,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346234</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.0111327346238</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>49.73195639979789</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627255</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.1599680048246</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.5985112554905</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>268.0111327346235</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.9682474305285</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.011132734623</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>227.3655273957968</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>88.19489769745771</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>128.4628789093293</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>144.1344859240868</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>113.8761173587616</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>144.1344859240864</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.36294431725433</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>117.7661826744368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>84.34995760698624</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>222.8531101735157</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>48.17580493062448</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.5921776627229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>614290.6382608541</v>
+        <v>622066.050382204</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>614290.6382608541</v>
+        <v>624267.839906988</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>615740.8820863479</v>
+        <v>624267.839906988</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607655.0958467623</v>
+        <v>607655.0958467619</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607655.0958467623</v>
+        <v>607655.0958467619</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607655.0958467624</v>
+        <v>607655.0958467621</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607655.0958467623</v>
+        <v>607655.0958467622</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633298.8352699277</v>
+        <v>633298.8352699276</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633298.8352699277</v>
+        <v>633298.8352699276</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633298.8352699276</v>
+        <v>633298.835269928</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>348495.7579287654</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="E2" t="n">
-        <v>328590.5336815897</v>
+        <v>328590.5336815896</v>
       </c>
       <c r="F2" t="n">
-        <v>328590.5336815897</v>
+        <v>328590.5336815896</v>
       </c>
       <c r="G2" t="n">
-        <v>328590.5336815896</v>
+        <v>328590.5336815895</v>
       </c>
       <c r="H2" t="n">
-        <v>328590.5336815898</v>
+        <v>328590.5336815895</v>
       </c>
       <c r="I2" t="n">
         <v>342457.4296892789</v>
@@ -26350,10 +26350,10 @@
         <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
+        <v>342457.429689279</v>
+      </c>
+      <c r="P2" t="n">
         <v>342457.4296892789</v>
-      </c>
-      <c r="P2" t="n">
-        <v>342457.4296892788</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039034</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739062</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283964</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784478</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742621</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966616</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908697</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.49019908699</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908697</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26457,7 +26457,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814201</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46817.01051933126</v>
+        <v>-86258.01730754209</v>
       </c>
       <c r="C6" t="n">
-        <v>95374.29014037858</v>
+        <v>108932.4947473125</v>
       </c>
       <c r="D6" t="n">
-        <v>88883.79491163162</v>
+        <v>126273.0391212187</v>
       </c>
       <c r="E6" t="n">
-        <v>-21080.59254717221</v>
+        <v>40907.06743994402</v>
       </c>
       <c r="F6" t="n">
-        <v>202718.7012048552</v>
+        <v>202642.1426500583</v>
       </c>
       <c r="G6" t="n">
-        <v>202718.7012048551</v>
+        <v>202642.1426500582</v>
       </c>
       <c r="H6" t="n">
-        <v>202718.7012048552</v>
+        <v>202642.1426500582</v>
       </c>
       <c r="I6" t="n">
-        <v>191812.6503410242</v>
+        <v>191789.4260016413</v>
       </c>
       <c r="J6" t="n">
-        <v>99162.90062887344</v>
+        <v>49546.31214886731</v>
       </c>
       <c r="K6" t="n">
-        <v>210177.3659738636</v>
+        <v>196340.1330666361</v>
       </c>
       <c r="L6" t="n">
-        <v>201229.7548853538</v>
+        <v>210154.141634481</v>
       </c>
       <c r="M6" t="n">
-        <v>23386.37936339591</v>
+        <v>75164.19702147765</v>
       </c>
       <c r="N6" t="n">
-        <v>210177.3659738637</v>
+        <v>210154.141634481</v>
       </c>
       <c r="O6" t="n">
-        <v>210177.3659738636</v>
+        <v>210154.1416344811</v>
       </c>
       <c r="P6" t="n">
-        <v>210177.3659738636</v>
+        <v>210154.141634481</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052121</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080615</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052121</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052121</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>253.9806856931611</v>
+        <v>280.4132250092918</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.7684510082023</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>96.78882194771245</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>322.5065522064243</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>369.842250023073</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>86.69612201382211</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>110.5076572325422</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>153.7986316347263</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.85629975846939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.354439087753363e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.769607014372014e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804267</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854669</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>65.00584608837605</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>115.4433635180153</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>290.2128107706658</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,13 +35331,13 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>51.27020671673881</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294867</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1152.384342430739</v>
+        <v>15.28233895957715</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,22 +35890,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>732.0625749059097</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36133,10 +36133,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>706.6317115441702</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>-6.786426882829224e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37245,7 +37245,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,10 +37558,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908644</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38184,10 +38184,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956035</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
